--- a/gama_codigo/models/resultados/finales/exp4-finales/merma_y_diferencia.xlsx
+++ b/gama_codigo/models/resultados/finales/exp4-finales/merma_y_diferencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shali\OneDrive\Escritorio\GAMA_1.8.1\tesis\gama_codigo\models\resultados\finales\exp4-finales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0749759-3D16-422F-B495-DB9982E0AB58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B92B2D06-CD7E-4289-88BE-1C999BBD5D41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Producto</t>
   </si>
@@ -116,12 +116,21 @@
   </si>
   <si>
     <t>diferencia</t>
+  </si>
+  <si>
+    <t>diferencia2</t>
+  </si>
+  <si>
+    <t>merma2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -151,9 +160,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="G2" sqref="G2:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,7 +457,7 @@
     <col min="4" max="4" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -466,8 +476,14 @@
       <c r="F1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -488,8 +504,15 @@
         <f>B2/D2</f>
         <v>24.812362530961494</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="2">
+        <f>SUM((B2/D2),-1)</f>
+        <v>23.812362530961494</v>
+      </c>
+      <c r="H2" s="2">
+        <v>74.15456927963595</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -510,8 +533,15 @@
         <f t="shared" ref="F3:F22" si="1">B3/D3</f>
         <v>67.44911402789171</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="2">
+        <f t="shared" ref="G3:G22" si="2">SUM((B3/D3),-1)</f>
+        <v>66.44911402789171</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -532,8 +562,15 @@
         <f t="shared" si="1"/>
         <v>3094.8524622222221</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="2">
+        <f t="shared" si="2"/>
+        <v>3093.8524622222221</v>
+      </c>
+      <c r="H4" s="2">
+        <v>98.620364891951823</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -554,8 +591,15 @@
         <f t="shared" si="1"/>
         <v>3654.8038886509635</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="2">
+        <f t="shared" si="2"/>
+        <v>3653.8038886509635</v>
+      </c>
+      <c r="H5" s="2">
+        <v>95.175222072686978</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -576,8 +620,15 @@
         <f t="shared" si="1"/>
         <v>48.56851783060921</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="2">
+        <f t="shared" si="2"/>
+        <v>47.56851783060921</v>
+      </c>
+      <c r="H6" s="2">
+        <v>80.096670538055363</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -598,8 +649,15 @@
         <f t="shared" si="1"/>
         <v>0.31286407394334759</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="2">
+        <f t="shared" si="2"/>
+        <v>-0.68713592605665241</v>
+      </c>
+      <c r="H7" s="2">
+        <v>70.796317725801615</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -620,8 +678,15 @@
         <f t="shared" si="1"/>
         <v>1.6586563530160199</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="2">
+        <f t="shared" si="2"/>
+        <v>0.65865635301601988</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -642,8 +707,15 @@
         <f t="shared" si="1"/>
         <v>91.477262883123217</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="2">
+        <f t="shared" si="2"/>
+        <v>90.477262883123217</v>
+      </c>
+      <c r="H9" s="2">
+        <v>90.804809706360672</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -664,8 +736,15 @@
         <f t="shared" si="1"/>
         <v>79.623379907423285</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="2">
+        <f t="shared" si="2"/>
+        <v>78.623379907423285</v>
+      </c>
+      <c r="H10" s="2">
+        <v>76.148154184847257</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -686,8 +765,15 @@
         <f t="shared" si="1"/>
         <v>2.0159932906373896</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0159932906373896</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -708,8 +794,15 @@
         <f t="shared" si="1"/>
         <v>47.246753401057447</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="2">
+        <f t="shared" si="2"/>
+        <v>46.246753401057447</v>
+      </c>
+      <c r="H12" s="2">
+        <v>18.123446035644708</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -730,8 +823,15 @@
         <f t="shared" si="1"/>
         <v>144.3385462555066</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="2">
+        <f t="shared" si="2"/>
+        <v>143.3385462555066</v>
+      </c>
+      <c r="H13" s="2">
+        <v>95.979435997094811</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -752,8 +852,15 @@
         <f t="shared" si="1"/>
         <v>46.645581162324646</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" s="2">
+        <f t="shared" si="2"/>
+        <v>45.645581162324646</v>
+      </c>
+      <c r="H14" s="2">
+        <v>52.700240034225111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -774,8 +881,15 @@
         <f t="shared" si="1"/>
         <v>33.681938495946326</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" s="2">
+        <f t="shared" si="2"/>
+        <v>32.681938495946326</v>
+      </c>
+      <c r="H15" s="2">
+        <v>13.29150807019113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -796,8 +910,15 @@
         <f t="shared" si="1"/>
         <v>710.32687091222033</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="2">
+        <f t="shared" si="2"/>
+        <v>709.32687091222033</v>
+      </c>
+      <c r="H16" s="2">
+        <v>90.423545328984716</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -818,8 +939,15 @@
         <f t="shared" si="1"/>
         <v>10975.815688073395</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="2">
+        <f t="shared" si="2"/>
+        <v>10974.815688073395</v>
+      </c>
+      <c r="H17" s="2">
+        <v>75.482601276395911</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -840,8 +968,15 @@
         <f t="shared" si="1"/>
         <v>2.4068615938625331</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" s="2">
+        <f t="shared" si="2"/>
+        <v>1.4068615938625331</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -862,8 +997,15 @@
         <f t="shared" si="1"/>
         <v>6.5922822299651571</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" s="2">
+        <f t="shared" si="2"/>
+        <v>5.5922822299651571</v>
+      </c>
+      <c r="H19" s="2">
+        <v>27.993071080497621</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -884,8 +1026,15 @@
         <f t="shared" si="1"/>
         <v>4.8310885095086693</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" s="2">
+        <f t="shared" si="2"/>
+        <v>3.8310885095086693</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -906,8 +1055,15 @@
         <f t="shared" si="1"/>
         <v>255.97703951389639</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" s="2">
+        <f t="shared" si="2"/>
+        <v>254.97703951389639</v>
+      </c>
+      <c r="H21" s="2">
+        <v>98.213357828722948</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -927,6 +1083,13 @@
       <c r="F22">
         <f t="shared" si="1"/>
         <v>12.953048119073179</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="2"/>
+        <v>11.953048119073179</v>
+      </c>
+      <c r="H22" s="2">
+        <v>46.47298922884319</v>
       </c>
     </row>
   </sheetData>
